--- a/biology/Zoologie/Australovenator/Australovenator.xlsx
+++ b/biology/Zoologie/Australovenator/Australovenator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Australovenator wintonensis
-Australovenator, surnommé « Banjo » du nom du poète Banjo Patterson, est un genre fossile de dinosaures théropodes carnivores mis au jour en Australie dans le centre du Queensland. Il a été découvert dans la formation géologique de Winton datée du Cénomanien, premier étage du Crétacé supérieur, il y a environ 95 Ma (millions d'années)[2]
-Il a été décrit par Hocknull et ses collègues dans le journal en ligne PLoS One en 2009, en même temps que Diamantinasaurus et Wintonotitan, découverts sur le même site[1].
-Une seule espèce est rattachée au genre : Australovenator wintonensis[1].
+Australovenator, surnommé « Banjo » du nom du poète Banjo Patterson, est un genre fossile de dinosaures théropodes carnivores mis au jour en Australie dans le centre du Queensland. Il a été découvert dans la formation géologique de Winton datée du Cénomanien, premier étage du Crétacé supérieur, il y a environ 95 Ma (millions d'années)
+Il a été décrit par Hocknull et ses collègues dans le journal en ligne PLoS One en 2009, en même temps que Diamantinasaurus et Wintonotitan, découverts sur le même site.
+Une seule espèce est rattachée au genre : Australovenator wintonensis.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un théropode de taille moyenne. D'après Scott A. Hocknull et ses collègues, il mesurait 6 mètres de long, 2 mètres de haut et pesait 500 kilos[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un théropode de taille moyenne. D'après Scott A. Hocknull et ses collègues, il mesurait 6 mètres de long, 2 mètres de haut et pesait 500 kilos,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 octobre 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 octobre 2018) :
 Australovenator wintonensis Hocknull, White, Tischler, Cook, Calleja, Sloan &amp; Elliot, 2009 †</t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme présenté ici suit l'analyse phylogénétique originelle lors de « l'invention » de la famille en 2010 par Roger Benson, Paul Carrano et Steve Brusatte[6] qui montre Australovenator comme très proche du genre australien Rapator[7] et de Fukuiraptor au sein du clade des Megaraptora, lui même inclus dans la famille des Neovenatoridae : 
-Il a été admis fin 2018 dans deux études que les Megaraptora étaient en réalité des Coelurosauria basaux [8],[9]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme présenté ici suit l'analyse phylogénétique originelle lors de « l'invention » de la famille en 2010 par Roger Benson, Paul Carrano et Steve Brusatte qui montre Australovenator comme très proche du genre australien Rapator et de Fukuiraptor au sein du clade des Megaraptora, lui même inclus dans la famille des Neovenatoridae : 
+Il a été admis fin 2018 dans deux études que les Megaraptora étaient en réalité des Coelurosauria basaux ,. 
 </t>
         </is>
       </c>
